--- a/SalesforceCRM/DataSources/suitea.xlsx
+++ b/SalesforceCRM/DataSources/suitea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="45">
   <si>
     <t>TCID</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>loginPassword</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -319,7 +322,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -335,6 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -690,10 +694,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -704,12 +708,15 @@
     <col min="4" max="5" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -725,8 +732,11 @@
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -742,8 +752,11 @@
       <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -759,13 +772,39 @@
       <c r="E4" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F4" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
         <v>1</v>
       </c>
@@ -781,8 +820,11 @@
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -798,13 +840,39 @@
       <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F8" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
@@ -820,8 +888,11 @@
       <c r="E11" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
@@ -837,8 +908,11 @@
       <c r="E12" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
@@ -854,8 +928,11 @@
       <c r="E13" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
@@ -870,6 +947,29 @@
       </c>
       <c r="E14" s="8" t="s">
         <v>15</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -885,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/SalesforceCRM/DataSources/suitea.xlsx
+++ b/SalesforceCRM/DataSources/suitea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -985,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/SalesforceCRM/DataSources/suitea.xlsx
+++ b/SalesforceCRM/DataSources/suitea.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="47">
   <si>
     <t>TCID</t>
   </si>
@@ -135,9 +135,6 @@
     <t>validateLogin</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>signInLink</t>
   </si>
   <si>
@@ -151,6 +148,15 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>https://www.zoho.com/</t>
+  </si>
+  <si>
+    <t>verifyTitle</t>
   </si>
 </sst>
 </file>
@@ -322,7 +328,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -339,6 +345,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -694,29 +701,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="6" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -724,269 +732,286 @@
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>44</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>43</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>44</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>43</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>44</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C15" s="11"/>
       <c r="D15" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1042,22 +1067,18 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>40</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5">
@@ -1065,86 +1086,90 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>9</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
@@ -1153,7 +1178,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1164,12 +1189,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5">
@@ -1177,13 +1200,26 @@
         <v>3</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SalesforceCRM/DataSources/suitea.xlsx
+++ b/SalesforceCRM/DataSources/suitea.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="49">
   <si>
     <t>TCID</t>
   </si>
@@ -141,12 +141,6 @@
     <t>loginUser</t>
   </si>
   <si>
-    <t>loginNextButton</t>
-  </si>
-  <si>
-    <t>loginPassword</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -157,6 +151,18 @@
   </si>
   <si>
     <t>verifyTitle</t>
+  </si>
+  <si>
+    <t>loginUser_id</t>
+  </si>
+  <si>
+    <t>loginNextButton_xpath</t>
+  </si>
+  <si>
+    <t>loginPassword_name</t>
+  </si>
+  <si>
+    <t>signInLink_linktext</t>
   </si>
 </sst>
 </file>
@@ -704,7 +710,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -721,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -732,7 +738,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -744,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -755,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>13</v>
@@ -767,7 +773,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -788,28 +794,28 @@
         <v>15</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -817,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -838,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -859,28 +865,28 @@
         <v>15</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -888,7 +894,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -909,7 +915,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -930,7 +936,7 @@
         <v>15</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -951,7 +957,7 @@
         <v>15</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -972,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +1017,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1019,7 +1025,7 @@
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1067,7 +1073,7 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1076,7 +1082,7 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -1092,7 +1098,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -1107,7 +1113,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>9</v>
@@ -1124,7 +1130,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -1139,7 +1145,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>10</v>
@@ -1156,7 +1162,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E9" s="8"/>
     </row>

--- a/SalesforceCRM/DataSources/suitea.xlsx
+++ b/SalesforceCRM/DataSources/suitea.xlsx
@@ -1017,7 +1017,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/SalesforceCRM/DataSources/suitea.xlsx
+++ b/SalesforceCRM/DataSources/suitea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="54">
   <si>
     <t>TCID</t>
   </si>
@@ -163,6 +163,21 @@
   </si>
   <si>
     <t>signInLink_linktext</t>
+  </si>
+  <si>
+    <t>zohohometitle</t>
+  </si>
+  <si>
+    <t>ProceedOnFail</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -649,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -710,7 +725,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -804,7 +819,9 @@
       <c r="B5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="D5" s="11" t="s">
         <v>41</v>
       </c>
@@ -833,7 +850,9 @@
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
@@ -875,7 +894,9 @@
       <c r="B9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="D9" s="11" t="s">
         <v>41</v>
       </c>
@@ -904,7 +925,9 @@
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
@@ -925,7 +948,9 @@
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="D12" s="8" t="s">
         <v>20</v>
       </c>
@@ -946,7 +971,9 @@
       <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
@@ -967,7 +994,9 @@
       <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="D14" s="8" t="s">
         <v>20</v>
       </c>
@@ -988,7 +1017,9 @@
       <c r="B15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="D15" s="11" t="s">
         <v>41</v>
       </c>
@@ -1014,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1026,10 +1057,11 @@
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1043,10 +1075,13 @@
         <v>24</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1057,11 +1092,12 @@
         <v>34</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -1072,11 +1108,12 @@
         <v>35</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1084,10 +1121,15 @@
       <c r="C4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="D4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -1101,8 +1143,9 @@
         <v>48</v>
       </c>
       <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1115,11 +1158,12 @@
       <c r="D6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
@@ -1133,8 +1177,9 @@
         <v>46</v>
       </c>
       <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
@@ -1147,11 +1192,12 @@
       <c r="D8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
         <v>2</v>
       </c>
@@ -1165,8 +1211,9 @@
         <v>46</v>
       </c>
       <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
@@ -1178,8 +1225,9 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
         <v>3</v>
       </c>
@@ -1189,8 +1237,9 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
@@ -1200,8 +1249,9 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
         <v>3</v>
       </c>
@@ -1213,8 +1263,9 @@
         <v>39</v>
       </c>
       <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
         <v>3</v>
       </c>
@@ -1226,6 +1277,7 @@
         <v>40</v>
       </c>
       <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
